--- a/examples/example5_party_continuity/sankey_planning.xlsx
+++ b/examples/example5_party_continuity/sankey_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Dropbox/_CODING/py/elections_lk/examples/example5_party_continuity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7DF3C5F-4E4A-F843-AE2C-368A1AA95CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9091FD8F-518D-8C42-8911-78294B00945B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21340" yWindow="3600" windowWidth="16620" windowHeight="12340"/>
+    <workbookView xWindow="5140" yWindow="1800" windowWidth="28100" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="report_2015_2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>party_x</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>UPFA</t>
+  </si>
+  <si>
+    <t>2015 Total</t>
+  </si>
+  <si>
+    <t>2019 Total</t>
   </si>
   <si>
     <t>Not Voted</t>
@@ -477,9 +483,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -522,54 +529,57 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="25" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="33" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="22" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="26" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="30" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="34" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="27" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="31" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="35" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="39" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="43" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="24" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="28" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="40" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="9" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="13" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="15" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="18" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="14" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="17" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -881,215 +891,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="11.7109375" style="1"/>
+    <col min="8" max="10" width="11.7109375" style="2"/>
+    <col min="11" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.837544921933986</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.90429415491521E-3</v>
       </c>
-      <c r="F2">
-        <f>6217162</f>
-        <v>6217162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="F2" s="1">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <f>12123452</f>
+        <v>12123452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.11004947651997</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>6.4564766041300695E-2</v>
       </c>
-      <c r="F3">
-        <f>5768090</f>
-        <v>5768090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>11985252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
+      <c r="F3" s="1">
+        <v>0.4758</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <f>13252499</f>
+        <v>13252499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="I4" s="1">
+        <f>I3/I2-1</f>
+        <v>9.3129168161015574E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
-        <f>B2*$F2</f>
-        <v>5207152.4619409442</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C2*$F2</f>
+      <c r="B6" s="3">
+        <f>B2*$F2*$I$2*(1+$I$4)</f>
+        <v>5691856.0296695456</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:D7" si="0">C2*$F2*$I$2*(1+$I$4)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <f>D2*$F2</f>
-        <v>11839.305256760956</v>
-      </c>
-      <c r="E10" s="1">
-        <f>F2-SUM(B10:D10)</f>
-        <v>998170.23280229513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>12941.357393571447</v>
+      </c>
+      <c r="E6" s="3">
+        <f>$F2*$I$2-SUM(B6:D6)</f>
+        <v>512108.79853688367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
-        <f>B3*$F3</f>
+      <c r="B7" s="3">
+        <f>B3*$F3*$I$2*(1+$I$4)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="1">
-        <f>C3*$F3</f>
-        <v>6402865.2850200739</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D3*$F3</f>
-        <v>372415.38135516614</v>
-      </c>
-      <c r="E11" s="1">
-        <f>F3-SUM(B11:D11)</f>
-        <v>-1007190.6663752403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <f>SUM(B10:B11)*($F$19-1)</f>
-        <v>400486.12274943065</v>
-      </c>
-      <c r="C12" s="1">
-        <f>SUM(C10:C11)*($F$19-1)</f>
-        <v>492449.32066552184</v>
-      </c>
-      <c r="D12" s="1">
-        <f>SUM(D10:D11)*($F$19-1)</f>
-        <v>29553.325107010001</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1">
-        <f>SUM(B10:B12)</f>
-        <v>5607638.5846903753</v>
-      </c>
-      <c r="C14" s="1">
-        <f>SUM(C10:C12)</f>
-        <v>6895314.6056855954</v>
-      </c>
-      <c r="D14" s="1">
-        <f>SUM(D10:D12)</f>
-        <v>413808.01171893714</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1">
-        <f>5564239</f>
-        <v>5564239</v>
-      </c>
-      <c r="C19" s="1">
-        <f>6924255</f>
-        <v>6924255</v>
-      </c>
-      <c r="D19" s="1">
-        <f>418553</f>
-        <v>418553</v>
-      </c>
-      <c r="E19" s="1">
-        <f>SUM(B19:D19)</f>
-        <v>12907047</v>
-      </c>
-      <c r="F19">
-        <f>E19/F4</f>
-        <v>1.0769107733404355</v>
-      </c>
+      <c r="C7" s="3">
+        <f>C3*$F3*$I$2*(1+$I$4)-C8</f>
+        <v>5361222.8097382318</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>407115.65186176455</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1638237.4832512201</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
